--- a/InputFiles/TC06_GMB_Filter_RegstrngInstition-NY021.xlsx
+++ b/InputFiles/TC06_GMB_Filter_RegstrngInstition-NY021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohilz2\Desktop\GMB Excel Files\Registering Instititution-14files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohilz2\Commons_Automation\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD0BE8CD-E917-4B35-BC75-4558DAAB06E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1C2B8D-5C83-464E-BA2B-8FABFF1CF850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="3852" yWindow="276" windowWidth="14400" windowHeight="11688" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="startup" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>WebExcel</t>
   </si>
@@ -58,30 +58,11 @@
   </si>
   <si>
     <t>TC06_GMB_Filter_RegstrngInstition-NY021_WebData.xlsx</t>
-  </si>
-  <si>
-    <t>MATCH  (e:ENROLLMENT)--&gt; (s:SUBJECT)
-MATCH  (AE:ADVERSE_EVENTS)--&gt; (s:SUBJECT)
-MATCH (sur:SURVIVAL)--&gt;(s:SUBJECT)
-MATCH(l:LABORATORY)--&gt;(s:SUBJECT)
-WHERE s.PT_RACE_CD_1 in ["NY021 : Mount Sinai Hospital"]
- RETURN
-s.PT_ID As Subject,
-s.PT_RACE_CD_1 As `Race`,
-s.DZ_DX_NM As `Disease Term`,
-e.DISEAS_STG As `Stage at Entry`,
-sur.DEATH_CAUS_CD As`Cause of Death`,
-sur.ATPSY_DZ_SITE_NM As `Sites of Disease at Autopsy`,
-l.LAB_DATA_SRCE_NM As `Source of The Lab Dat`,
-l.LAB_TEST_NM As `Lab Test`,
-AE.MEDDRA_SOC_TRM_NM As `System Organ Class`,
-AE.SAE_RSN As `Serious`,
-AE.AE_OUTCOME As `Outcome`</t>
   </si>
   <si>
     <t xml:space="preserve">MATCH  (f:FILE)--&gt; (s:SUBJECT)
 MATCH (s:SUBJECT)--&gt;(t:CLINICALTRIAL)
-WHERE s.PT_RACE_CD_1 in ["NY021 : Mount Sinai Hospital"]
+WHERE s.REG_INST_ID_CD in ["NY021 : Mount Sinai Hospital"]
  RETURN
     count(distinct t) AS Trials,
     count(distinct s) AS Subjects,
@@ -89,8 +70,17 @@
   </t>
   </si>
   <si>
+    <t>MATCH  (f:FILE)--&gt; (s:SUBJECT)
+MATCH (s:SUBJECT)--&gt;(t:CLINICALTRIAL)
+WHERE s.REG_INST_ID_CD in ["NY021 : Mount Sinai Hospital"]
+ RETURN
+    count(distinct t) AS Trials,
+    count(distinct s) AS Subjects,
+    count(distinct f) AS `Files`</t>
+  </si>
+  <si>
     <t xml:space="preserve">MATCH  (f:FILE)--&gt; (s:SUBJECT)
-WHERE s.PT_RACE_CD_1 in ["NY021 : Mount Sinai Hospital"]
+WHERE s.REG_INST_ID_CD in ["NY021 : Mount Sinai Hospital"]
 WITH DISTINCT f,  s
 WITH
         f, s, 
@@ -112,6 +102,25 @@
  CASE size % 1 WHEN 0 THEN apoc.convert.toInteger(size)+' ' +unit ELSE size+' ' +unit END AS Size,
  coalesce(f.FILE_TYPE, '') as `Type`
 </t>
+  </si>
+  <si>
+    <t>MATCH  (e:ENROLLMENT)--&gt; (s:SUBJECT)
+MATCH  (AE:ADVERSE_EVENTS)--&gt; (s:SUBJECT)
+MATCH (sur:SURVIVAL)--&gt;(s:SUBJECT)
+MATCH(l:LABORATORY)--&gt;(s:SUBJECT)
+WHERE s.REG_INST_ID_CD in ["NY021 : Mount Sinai Hospital"]
+ RETURN
+s.PT_ID As Subject,
+s.PT_RACE_CD_1 As `Race`,
+s.DZ_DX_NM As `Disease Term`,
+e.DISEAS_STG As `Stage at Entry`,
+sur.DEATH_CAUS_CD As`Cause of Death`,
+sur.ATPSY_DZ_SITE_NM As `Sites of Disease at Autopsy`,
+l.LAB_DATA_SRCE_NM As `Source of The Lab Dat`,
+l.LAB_TEST_NM As `Lab Test`,
+AE.MEDDRA_SOC_TRM_NM As `System Organ Class`,
+AE.SAE_RSN As `Serious`,
+AE.AE_OUTCOME As `Outcome`</t>
   </si>
 </sst>
 </file>
@@ -494,8 +503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -529,10 +538,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>7</v>
